--- a/medicine/Premiers secours et secourisme/International_Liaison_Committee_on_Resuscitation/International_Liaison_Committee_on_Resuscitation.xlsx
+++ b/medicine/Premiers secours et secourisme/International_Liaison_Committee_on_Resuscitation/International_Liaison_Committee_on_Resuscitation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'International liaison committee on ressucitation (ILCOR) est le comité de liaison international sur la réanimation. C'est un comité de liaison permanent entre différentes associations de secourisme dont le but est d'assurer une coordination en matière de techniques et protocoles de réanimation.
 </t>
@@ -511,7 +523,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les principaux objectifs de l'ILCOR sont de :
 fournir un espace de discussion et de coordination sur tous les aspects de la réanimation cardio-pulmonaire et cérébrale dans le monde
@@ -546,7 +560,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'ILCOR se réunit pendant une durée de trois semaines tous les cinq ans, regroupant pour l'occasion des médecins et des secouristes de pratiquement tous les continents.
 Les premières recommandations de l'ILCOR datent de 2000.
@@ -582,7 +598,9 @@
           <t>Recommandations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L'ILCOR produit ses recommandations sur proposition de l'un des pays ou de l'un des organismes membres après un consensus sur la question.
 points de compression : en 2007, une étude américaine présentant les points de compression comme des gestes dangereux, et aucun médecin ne pouvant opposer d'argument contradictoire, l'ILCOR décide de ne plus prescrire ces gestes dans le cadre des gestes d'urgence.</t>
@@ -613,7 +631,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Les principaux membres sont :
 American Heart Association (AHA)
